--- a/fgt-tables/fgt_sexo_sm.xlsx
+++ b/fgt-tables/fgt_sexo_sm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.08448649160336914</v>
+        <v>0.06602291937237484</v>
       </c>
       <c r="C2">
-        <v>0.001036211852711945</v>
+        <v>0.001004469044575683</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.08591304499321054</v>
+        <v>0.08041596580427651</v>
       </c>
       <c r="C3">
-        <v>0.001040924767795845</v>
+        <v>0.001160914808582568</v>
       </c>
     </row>
   </sheetData>
